--- a/基本設計/学生テーブル定義.xlsx
+++ b/基本設計/学生テーブル定義.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9875"/>
+    <workbookView windowWidth="9192" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>varchar</t>
+    <t>String</t>
   </si>
   <si>
     <t>生年月日</t>
@@ -94,7 +94,7 @@
     <t>birthday</t>
   </si>
   <si>
-    <t>detetime</t>
+    <t>Timestamp</t>
   </si>
   <si>
     <t>年齢</t>
@@ -121,11 +121,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -150,30 +172,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,12 +203,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -203,9 +227,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,84 +285,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,187 +307,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,30 +506,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,7 +544,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,15 +565,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,159 +583,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,9 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,7 +1092,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1123,212 +1104,212 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="7">
         <v>45025</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>45025</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
